--- a/uniaxial-loading-unloading/time_strain_stress/0d03_3d0.xlsx
+++ b/uniaxial-loading-unloading/time_strain_stress/0d03_3d0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3" uniqueCount="3">
   <si>
     <t>Time_s</t>
   </si>
@@ -67,7 +67,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C268"/>
+  <dimension ref="A1:C242"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -91,2939 +91,2653 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>1.0005999999999999</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.81818181818181812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.5</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="B3" s="0">
-        <v>1.0149999999999999</v>
+        <v>1.0156000000000001</v>
       </c>
       <c r="C3" s="0">
-        <v>4.4214329380764159</v>
+        <v>4.5428556149732628</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="B4" s="0">
-        <v>1.03</v>
+        <v>1.0306</v>
       </c>
       <c r="C4" s="0">
-        <v>7.0870536671058391</v>
+        <v>7.1837309749074461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="B5" s="0">
-        <v>1.0449999999999999</v>
+        <v>1.0456000000000001</v>
       </c>
       <c r="C5" s="0">
-        <v>9.2983077733860338</v>
+        <v>9.3792661456190878</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="B6" s="0">
-        <v>1.0600000000000001</v>
+        <v>1.0606</v>
       </c>
       <c r="C6" s="0">
-        <v>11.231594729907771</v>
+        <v>11.301345125462776</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="B7" s="0">
-        <v>1.075</v>
+        <v>1.0756000000000001</v>
       </c>
       <c r="C7" s="0">
-        <v>12.970993939393937</v>
+        <v>13.040547099958868</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="B8" s="0">
-        <v>1.0900000000000001</v>
+        <v>1.0906</v>
       </c>
       <c r="C8" s="0">
-        <v>14.569342116820376</v>
+        <v>14.630756890168657</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="B9" s="0">
-        <v>1.105</v>
+        <v>1.1055999999999999</v>
       </c>
       <c r="C9" s="0">
-        <v>16.060506807202461</v>
+        <v>16.117489921842864</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>4</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="B10" s="0">
-        <v>1.1200000000000001</v>
+        <v>1.1206</v>
       </c>
       <c r="C10" s="0">
-        <v>17.441342292490113</v>
+        <v>17.491313039901279</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>4.5</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="B11" s="0">
-        <v>1.135</v>
+        <v>1.1355999999999999</v>
       </c>
       <c r="C11" s="0">
-        <v>18.734760298638552</v>
+        <v>18.786879473467714</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>5</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="B12" s="0">
-        <v>1.1499999999999999</v>
+        <v>1.1506000000000001</v>
       </c>
       <c r="C12" s="0">
-        <v>19.952190777338597</v>
+        <v>20.000153846153847</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>5.5</v>
+        <v>5.5199999999999996</v>
       </c>
       <c r="B13" s="0">
-        <v>1.165</v>
+        <v>1.1656</v>
       </c>
       <c r="C13" s="0">
-        <v>21.099532191480009</v>
+        <v>21.144719045660228</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>6</v>
+        <v>6.0199999999999996</v>
       </c>
       <c r="B14" s="0">
-        <v>1.1799999999999999</v>
+        <v>1.1806000000000001</v>
       </c>
       <c r="C14" s="0">
-        <v>22.179871585419409</v>
+        <v>22.219457836281368</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>6.5</v>
+        <v>6.5199999999999996</v>
       </c>
       <c r="B15" s="0">
-        <v>1.1950000000000001</v>
+        <v>1.1956</v>
       </c>
       <c r="C15" s="0">
-        <v>23.202436539306095</v>
+        <v>23.238380090497746</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>7</v>
+        <v>7.0199999999999996</v>
       </c>
       <c r="B16" s="0">
-        <v>1.21</v>
+        <v>1.2105999999999999</v>
       </c>
       <c r="C16" s="0">
-        <v>24.178908915239347</v>
+        <v>24.216666392431101</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>7.5</v>
+        <v>7.5199999999999996</v>
       </c>
       <c r="B17" s="0">
-        <v>1.2250000000000001</v>
+        <v>1.2256</v>
       </c>
       <c r="C17" s="0">
-        <v>25.103944839701352</v>
+        <v>25.144023858494453</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>8</v>
+        <v>8.0199999999999996</v>
       </c>
       <c r="B18" s="0">
-        <v>1.24</v>
+        <v>1.2405999999999999</v>
       </c>
       <c r="C18" s="0">
-        <v>25.990141589811152</v>
+        <v>26.023484985602636</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>8.5</v>
+        <v>8.5199999999999996</v>
       </c>
       <c r="B19" s="0">
-        <v>1.2549999999999999</v>
+        <v>1.2556</v>
       </c>
       <c r="C19" s="0">
-        <v>26.842367325428185</v>
+        <v>26.872603044014806</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>9</v>
+        <v>9.0199999999999996</v>
       </c>
       <c r="B20" s="0">
-        <v>1.27</v>
+        <v>1.2706</v>
       </c>
       <c r="C20" s="0">
-        <v>27.646755204216067</v>
+        <v>27.674856437679974</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>9.5</v>
+        <v>9.5199999999999996</v>
       </c>
       <c r="B21" s="0">
-        <v>1.2849999999999999</v>
+        <v>1.2856000000000001</v>
       </c>
       <c r="C21" s="0">
-        <v>28.419430478700036</v>
+        <v>28.451155902920618</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="B22" s="0">
-        <v>1.3</v>
+        <v>1.3006</v>
       </c>
       <c r="C22" s="0">
-        <v>29.153115502854629</v>
+        <v>29.183509666803786</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>10.5</v>
+        <v>10.52</v>
       </c>
       <c r="B23" s="0">
-        <v>1.3149999999999999</v>
+        <v>1.3155999999999999</v>
       </c>
       <c r="C23" s="0">
-        <v>29.862261396574439</v>
+        <v>29.89139037433155</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>11</v>
+        <v>11.02</v>
       </c>
       <c r="B24" s="0">
-        <v>1.3300000000000001</v>
+        <v>1.3306</v>
       </c>
       <c r="C24" s="0">
-        <v>30.542848660518221</v>
+        <v>30.570198272315928</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>11.5</v>
+        <v>11.52</v>
       </c>
       <c r="B25" s="0">
-        <v>1.345</v>
+        <v>1.3455999999999999</v>
       </c>
       <c r="C25" s="0">
-        <v>31.198491699604734</v>
+        <v>31.218993006993013</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="B26" s="0">
-        <v>1.3599999999999999</v>
+        <v>1.3606</v>
       </c>
       <c r="C26" s="0">
-        <v>31.831315766359239</v>
+        <v>31.858977375565615</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>12.5</v>
+        <v>12.52</v>
       </c>
       <c r="B27" s="0">
-        <v>1.375</v>
+        <v>1.3755999999999999</v>
       </c>
       <c r="C27" s="0">
-        <v>32.447698023715411</v>
+        <v>32.471752365281773</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>13</v>
+        <v>13.02</v>
       </c>
       <c r="B28" s="0">
-        <v>1.3900000000000001</v>
+        <v>1.3906000000000001</v>
       </c>
       <c r="C28" s="0">
-        <v>33.025543258673693</v>
+        <v>33.049967091731801</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>13.5</v>
+        <v>13.52</v>
       </c>
       <c r="B29" s="0">
-        <v>1.405</v>
+        <v>1.4056</v>
       </c>
       <c r="C29" s="0">
-        <v>33.589078787878783</v>
+        <v>33.609981900452496</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>14</v>
+        <v>14.02</v>
       </c>
       <c r="B30" s="0">
-        <v>1.4199999999999999</v>
+        <v>1.4205999999999999</v>
       </c>
       <c r="C30" s="0">
-        <v>34.146981115502854</v>
+        <v>34.169656108597295</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>14.5</v>
+        <v>14.52</v>
       </c>
       <c r="B31" s="0">
-        <v>1.4350000000000001</v>
+        <v>1.4356</v>
       </c>
       <c r="C31" s="0">
-        <v>34.673809574000877</v>
+        <v>34.691509666803789</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>15</v>
+        <v>15.02</v>
       </c>
       <c r="B32" s="0">
-        <v>1.45</v>
+        <v>1.4505999999999999</v>
       </c>
       <c r="C32" s="0">
-        <v>35.17705138339921</v>
+        <v>35.196686137392028</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>15.5</v>
+        <v>15.52</v>
       </c>
       <c r="B33" s="0">
-        <v>1.4649999999999999</v>
+        <v>1.4656</v>
       </c>
       <c r="C33" s="0">
-        <v>35.682021431708385</v>
+        <v>35.706352118469773</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>16</v>
+        <v>16.02</v>
       </c>
       <c r="B34" s="0">
-        <v>1.48</v>
+        <v>1.4805999999999999</v>
       </c>
       <c r="C34" s="0">
-        <v>36.158656829161167</v>
+        <v>36.182524064171126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>16.5</v>
+        <v>16.52</v>
       </c>
       <c r="B35" s="0">
-        <v>1.4950000000000001</v>
+        <v>1.4956</v>
       </c>
       <c r="C35" s="0">
-        <v>36.618367149758441</v>
+        <v>36.638538872891822</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>17</v>
+        <v>17.02</v>
       </c>
       <c r="B36" s="0">
-        <v>1.51</v>
+        <v>1.5105999999999999</v>
       </c>
       <c r="C36" s="0">
-        <v>37.068314624505916</v>
+        <v>37.090298642533938</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>17.5</v>
+        <v>17.52</v>
       </c>
       <c r="B37" s="0">
-        <v>1.5249999999999999</v>
+        <v>1.5255999999999998</v>
       </c>
       <c r="C37" s="0">
-        <v>37.507179095300835</v>
+        <v>37.528771698889344</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>18</v>
+        <v>18.02</v>
       </c>
       <c r="B38" s="0">
-        <v>1.54</v>
+        <v>1.5406</v>
       </c>
       <c r="C38" s="0">
-        <v>37.939442951251642</v>
+        <v>37.953644590703412</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>18.5</v>
+        <v>18.52</v>
       </c>
       <c r="B39" s="0">
-        <v>1.5549999999999999</v>
+        <v>1.5556000000000001</v>
       </c>
       <c r="C39" s="0">
-        <v>38.353659376372413</v>
+        <v>38.369433977786919</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>19</v>
+        <v>19.02</v>
       </c>
       <c r="B40" s="0">
-        <v>1.5699999999999998</v>
+        <v>1.5706</v>
       </c>
       <c r="C40" s="0">
-        <v>38.746781906016686</v>
+        <v>38.763861785273548</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>19.5</v>
+        <v>19.52</v>
       </c>
       <c r="B41" s="0">
-        <v>1.585</v>
+        <v>1.5855999999999999</v>
       </c>
       <c r="C41" s="0">
-        <v>39.142910671936754</v>
+        <v>39.161364870423697</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>20</v>
+        <v>20.02</v>
       </c>
       <c r="B42" s="0">
-        <v>1.6000000000000001</v>
+        <v>1.6006</v>
       </c>
       <c r="C42" s="0">
-        <v>39.519968730786118</v>
+        <v>39.533648704236946</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>20.5</v>
+        <v>20.52</v>
       </c>
       <c r="B43" s="0">
-        <v>1.615</v>
+        <v>1.6155999999999999</v>
       </c>
       <c r="C43" s="0">
-        <v>39.88906526130873</v>
+        <v>39.901503907856849</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>21</v>
+        <v>21.02</v>
       </c>
       <c r="B44" s="0">
-        <v>1.6299999999999999</v>
+        <v>1.6305999999999998</v>
       </c>
       <c r="C44" s="0">
-        <v>40.254030215195421</v>
+        <v>40.2728440970794</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>21.5</v>
+        <v>21.52</v>
       </c>
       <c r="B45" s="0">
-        <v>1.645</v>
+        <v>1.6456</v>
       </c>
       <c r="C45" s="0">
-        <v>40.60658761528326</v>
+        <v>40.619431509666796</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>22</v>
+        <v>22.02</v>
       </c>
       <c r="B46" s="0">
-        <v>1.6599999999999999</v>
+        <v>1.6606000000000001</v>
       </c>
       <c r="C46" s="0">
-        <v>40.955932367149749</v>
+        <v>40.969163307280965</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>22.5</v>
+        <v>22.52</v>
       </c>
       <c r="B47" s="0">
-        <v>1.6749999999999998</v>
+        <v>1.6756</v>
       </c>
       <c r="C47" s="0">
-        <v>41.287887395696082</v>
+        <v>41.300517482517485</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>23</v>
+        <v>23.02</v>
       </c>
       <c r="B48" s="0">
-        <v>1.6899999999999999</v>
+        <v>1.6905999999999999</v>
       </c>
       <c r="C48" s="0">
-        <v>41.609636714975842</v>
+        <v>41.61935088440972</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>23.5</v>
+        <v>23.52</v>
       </c>
       <c r="B49" s="0">
-        <v>1.7050000000000001</v>
+        <v>1.7056</v>
       </c>
       <c r="C49" s="0">
-        <v>41.929827140974957</v>
+        <v>41.945109008638433</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>24</v>
+        <v>24.02</v>
       </c>
       <c r="B50" s="0">
-        <v>1.72</v>
+        <v>1.7205999999999999</v>
       </c>
       <c r="C50" s="0">
-        <v>42.23880702678963</v>
+        <v>42.250222953517074</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>24.5</v>
+        <v>24.52</v>
       </c>
       <c r="B51" s="0">
-        <v>1.7349999999999999</v>
+        <v>1.7355999999999998</v>
       </c>
       <c r="C51" s="0">
-        <v>42.543633201581017</v>
+        <v>42.554297819827234</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>25</v>
+        <v>25.02</v>
       </c>
       <c r="B52" s="0">
-        <v>1.75</v>
+        <v>1.7505999999999999</v>
       </c>
       <c r="C52" s="0">
-        <v>42.845388844971446</v>
+        <v>42.854565199506389</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>25.5</v>
+        <v>25.52</v>
       </c>
       <c r="B53" s="0">
-        <v>1.7650000000000001</v>
+        <v>1.7656000000000001</v>
       </c>
       <c r="C53" s="0">
-        <v>43.141088801054011</v>
+        <v>43.152195804195806</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>26</v>
+        <v>26.02</v>
       </c>
       <c r="B54" s="0">
-        <v>1.78</v>
+        <v>1.7806</v>
       </c>
       <c r="C54" s="0">
-        <v>43.419990865173467</v>
+        <v>43.429709584533121</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>26.5</v>
+        <v>26.52</v>
       </c>
       <c r="B55" s="0">
-        <v>1.7949999999999999</v>
+        <v>1.7955999999999999</v>
       </c>
       <c r="C55" s="0">
-        <v>43.700020026350458</v>
+        <v>43.706382558617854</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>27</v>
+        <v>27.02</v>
       </c>
       <c r="B56" s="0">
-        <v>1.8100000000000001</v>
+        <v>1.8106</v>
       </c>
       <c r="C56" s="0">
-        <v>43.972803162055321</v>
+        <v>43.987302344714124</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>27.5</v>
+        <v>27.52</v>
       </c>
       <c r="B57" s="0">
-        <v>1.825</v>
+        <v>1.8256000000000001</v>
       </c>
       <c r="C57" s="0">
-        <v>44.251771102327616</v>
+        <v>44.262541341011939</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>28</v>
+        <v>28.02</v>
       </c>
       <c r="B58" s="0">
-        <v>1.8399999999999999</v>
+        <v>1.8405999999999998</v>
       </c>
       <c r="C58" s="0">
-        <v>44.501911286780832</v>
+        <v>44.509347593582888</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>28.5</v>
+        <v>28.52</v>
       </c>
       <c r="B59" s="0">
-        <v>1.855</v>
+        <v>1.8555999999999999</v>
       </c>
       <c r="C59" s="0">
-        <v>44.76206534914359</v>
+        <v>44.774561908679559</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>29</v>
+        <v>29.02</v>
       </c>
       <c r="B60" s="0">
-        <v>1.8700000000000001</v>
+        <v>1.8706</v>
       </c>
       <c r="C60" s="0">
-        <v>45.02145981554677</v>
+        <v>45.032348004936246</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>29.5</v>
+        <v>29.52</v>
       </c>
       <c r="B61" s="0">
-        <v>1.885</v>
+        <v>1.8855999999999999</v>
       </c>
       <c r="C61" s="0">
-        <v>45.263392007026781</v>
+        <v>45.270680378445086</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>30</v>
+        <v>30.02</v>
       </c>
       <c r="B62" s="0">
-        <v>1.8999999999999999</v>
+        <v>1.9005999999999998</v>
       </c>
       <c r="C62" s="0">
-        <v>45.522999912165112</v>
+        <v>45.534084738790632</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>30.5</v>
+        <v>30.52</v>
       </c>
       <c r="B63" s="0">
-        <v>1.915</v>
+        <v>1.9156</v>
       </c>
       <c r="C63" s="0">
-        <v>45.758951251646906</v>
+        <v>45.767734265734262</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>31</v>
+        <v>31.02</v>
       </c>
       <c r="B64" s="0">
-        <v>1.9299999999999999</v>
+        <v>1.9306000000000001</v>
       </c>
       <c r="C64" s="0">
-        <v>45.994425647782158</v>
+        <v>46.003323735088443</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>31.5</v>
+        <v>31.52</v>
       </c>
       <c r="B65" s="0">
-        <v>1.9449999999999998</v>
+        <v>1.9456</v>
       </c>
       <c r="C65" s="0">
-        <v>46.230146157224404</v>
+        <v>46.23741176470589</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>32</v>
+        <v>32.020000000000003</v>
       </c>
       <c r="B66" s="0">
-        <v>1.96</v>
+        <v>1.9605999999999999</v>
       </c>
       <c r="C66" s="0">
-        <v>46.460562845849793</v>
+        <v>46.467677498971625</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>32.5</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="B67" s="0">
-        <v>1.9750000000000001</v>
+        <v>1.9756</v>
       </c>
       <c r="C67" s="0">
-        <v>46.682393324549828</v>
+        <v>46.69362073220897</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>33</v>
+        <v>33.020000000000003</v>
       </c>
       <c r="B68" s="0">
-        <v>1.99</v>
+        <v>1.9906000000000001</v>
       </c>
       <c r="C68" s="0">
-        <v>46.910241545893719</v>
+        <v>46.914858083093378</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>33.5</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="B69" s="0">
-        <v>2.0049999999999999</v>
+        <v>2.0056000000000003</v>
       </c>
       <c r="C69" s="0">
-        <v>47.132576723759342</v>
+        <v>47.141005347593584</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>34</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="B70" s="0">
-        <v>2.02</v>
+        <v>2.0206</v>
       </c>
       <c r="C70" s="0">
-        <v>47.340265788317957</v>
+        <v>47.353229946524067</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>34.5</v>
+        <v>34.520000000000003</v>
       </c>
       <c r="B71" s="0">
-        <v>2.0350000000000001</v>
+        <v>2.0356000000000001</v>
       </c>
       <c r="C71" s="0">
-        <v>47.554645937637247</v>
+        <v>47.559618264088854</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>35</v>
+        <v>35.020000000000003</v>
       </c>
       <c r="B72" s="0">
-        <v>2.0499999999999998</v>
+        <v>2.0506000000000002</v>
       </c>
       <c r="C72" s="0">
-        <v>47.774911550285459</v>
+        <v>47.777946524064177</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>35.5</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="B73" s="0">
-        <v>2.0649999999999999</v>
+        <v>2.0655999999999999</v>
       </c>
       <c r="C73" s="0">
-        <v>47.984045322793129</v>
+        <v>47.992874537227479</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>36</v>
+        <v>36.020000000000003</v>
       </c>
       <c r="B74" s="0">
-        <v>2.0800000000000001</v>
+        <v>2.0806</v>
       </c>
       <c r="C74" s="0">
-        <v>48.185327360562134</v>
+        <v>48.199067050596469</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>36.5</v>
+        <v>36.520000000000003</v>
       </c>
       <c r="B75" s="0">
-        <v>2.0949999999999998</v>
+        <v>2.0956000000000001</v>
       </c>
       <c r="C75" s="0">
-        <v>48.391179270970561</v>
+        <v>48.400030440148086</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>37</v>
+        <v>37.020000000000003</v>
       </c>
       <c r="B76" s="0">
-        <v>2.1099999999999999</v>
+        <v>2.1105999999999998</v>
       </c>
       <c r="C76" s="0">
-        <v>48.591037681159406</v>
+        <v>48.597571369806673</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>37.5</v>
+        <v>37.520000000000003</v>
       </c>
       <c r="B77" s="0">
-        <v>2.125</v>
+        <v>2.1256000000000004</v>
       </c>
       <c r="C77" s="0">
-        <v>48.797449451032037</v>
+        <v>48.801088440970801</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>38</v>
+        <v>38.020000000000003</v>
       </c>
       <c r="B78" s="0">
-        <v>2.1399999999999997</v>
+        <v>2.1406000000000001</v>
       </c>
       <c r="C78" s="0">
-        <v>48.985496003513383</v>
+        <v>48.994875359934184</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>38.5</v>
+        <v>38.520000000000003</v>
       </c>
       <c r="B79" s="0">
-        <v>2.1550000000000002</v>
+        <v>2.1555999999999997</v>
       </c>
       <c r="C79" s="0">
-        <v>49.178962318840561</v>
+        <v>49.193675853558211</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>39</v>
+        <v>39.020000000000003</v>
       </c>
       <c r="B80" s="0">
-        <v>2.1699999999999999</v>
+        <v>2.1706000000000003</v>
       </c>
       <c r="C80" s="0">
-        <v>49.37344312692138</v>
+        <v>49.380388317564794</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>39.5</v>
+        <v>39.520000000000003</v>
       </c>
       <c r="B81" s="0">
-        <v>2.1850000000000001</v>
+        <v>2.1856</v>
       </c>
       <c r="C81" s="0">
-        <v>49.567775845410615</v>
+        <v>49.575420814479635</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>40</v>
+        <v>40.020000000000003</v>
       </c>
       <c r="B82" s="0">
-        <v>2.2000000000000002</v>
+        <v>2.2006000000000001</v>
       </c>
       <c r="C82" s="0">
-        <v>49.754197101449279</v>
+        <v>49.763117235705479</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>40.5</v>
+        <v>40.520000000000003</v>
       </c>
       <c r="B83" s="0">
-        <v>2.2149999999999999</v>
+        <v>2.2156000000000002</v>
       </c>
       <c r="C83" s="0">
-        <v>49.940246113306969</v>
+        <v>49.9473484162896</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>41</v>
+        <v>41.020000000000003</v>
       </c>
       <c r="B84" s="0">
-        <v>2.23</v>
+        <v>2.2305999999999999</v>
       </c>
       <c r="C84" s="0">
-        <v>50.126829336846725</v>
+        <v>50.132797202797214</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>41.5</v>
+        <v>41.520000000000003</v>
       </c>
       <c r="B85" s="0">
-        <v>2.2450000000000001</v>
+        <v>2.2456</v>
       </c>
       <c r="C85" s="0">
-        <v>50.315537285902479</v>
+        <v>50.317153434800503</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>42</v>
+        <v>42.020000000000003</v>
       </c>
       <c r="B86" s="0">
-        <v>2.2599999999999998</v>
+        <v>2.2606000000000002</v>
       </c>
       <c r="C86" s="0">
-        <v>50.495499341238457</v>
+        <v>50.503698889345955</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>42.5</v>
+        <v>42.520000000000003</v>
       </c>
       <c r="B87" s="0">
-        <v>2.2749999999999999</v>
+        <v>2.2755999999999998</v>
       </c>
       <c r="C87" s="0">
-        <v>50.673678875713641</v>
+        <v>50.67720115178939</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>43</v>
+        <v>43.020000000000003</v>
       </c>
       <c r="B88" s="0">
-        <v>2.29</v>
+        <v>2.2906</v>
       </c>
       <c r="C88" s="0">
-        <v>50.85248590250329</v>
+        <v>50.86019827231592</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>43.5</v>
+        <v>43.520000000000003</v>
       </c>
       <c r="B89" s="0">
-        <v>2.3049999999999997</v>
+        <v>2.3056000000000001</v>
       </c>
       <c r="C89" s="0">
-        <v>51.030554238032487</v>
+        <v>51.037248868778292</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>44</v>
+        <v>44.020000000000003</v>
       </c>
       <c r="B90" s="0">
-        <v>2.3199999999999998</v>
+        <v>2.3205999999999998</v>
       </c>
       <c r="C90" s="0">
-        <v>51.201374615722429</v>
+        <v>51.205403537638844</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>44.5</v>
+        <v>44.520000000000003</v>
       </c>
       <c r="B91" s="0">
-        <v>2.335</v>
+        <v>2.3356000000000003</v>
       </c>
       <c r="C91" s="0">
-        <v>51.380185331576627</v>
+        <v>51.385339366515858</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>45</v>
+        <v>45.020000000000003</v>
       </c>
       <c r="B92" s="0">
-        <v>2.3499999999999996</v>
+        <v>2.3506</v>
       </c>
       <c r="C92" s="0">
-        <v>51.555905489679397</v>
+        <v>51.565701357466068</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>45.5</v>
+        <v>45.520000000000003</v>
       </c>
       <c r="B93" s="0">
-        <v>2.3650000000000002</v>
+        <v>2.3656000000000001</v>
       </c>
       <c r="C93" s="0">
-        <v>51.729109178743954</v>
+        <v>51.738287947346777</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>46</v>
+        <v>46.020000000000003</v>
       </c>
       <c r="B94" s="0">
-        <v>2.3799999999999999</v>
+        <v>2.3806000000000003</v>
       </c>
       <c r="C94" s="0">
-        <v>51.894558454106267</v>
+        <v>51.897309749074473</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>46.5</v>
+        <v>46.520000000000003</v>
       </c>
       <c r="B95" s="0">
-        <v>2.395</v>
+        <v>2.3956</v>
       </c>
       <c r="C95" s="0">
-        <v>52.067028897672358</v>
+        <v>52.074119292472226</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>47</v>
+        <v>47.020000000000003</v>
       </c>
       <c r="B96" s="0">
-        <v>2.4100000000000001</v>
+        <v>2.4106000000000001</v>
       </c>
       <c r="C96" s="0">
-        <v>52.232560035133929</v>
+        <v>52.244663101604274</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>47.5</v>
+        <v>47.520000000000003</v>
       </c>
       <c r="B97" s="0">
-        <v>2.4249999999999998</v>
+        <v>2.4256000000000002</v>
       </c>
       <c r="C97" s="0">
-        <v>52.410889942907332</v>
+        <v>52.418823529411767</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>48</v>
+        <v>48.020000000000003</v>
       </c>
       <c r="B98" s="0">
-        <v>2.4399999999999999</v>
+        <v>2.4405999999999999</v>
       </c>
       <c r="C98" s="0">
-        <v>52.567498989898986</v>
+        <v>52.574027972027977</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>48.5</v>
+        <v>48.520000000000003</v>
       </c>
       <c r="B99" s="0">
-        <v>2.4550000000000001</v>
+        <v>2.4556</v>
       </c>
       <c r="C99" s="0">
-        <v>52.742382960035108</v>
+        <v>52.749333607568907</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>49</v>
+        <v>49.020000000000003</v>
       </c>
       <c r="B100" s="0">
-        <v>2.4699999999999998</v>
+        <v>2.4706000000000001</v>
       </c>
       <c r="C100" s="0">
-        <v>52.897439437856825</v>
+        <v>52.903155080213907</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>49.5</v>
+        <v>49.520000000000003</v>
       </c>
       <c r="B101" s="0">
-        <v>2.4849999999999999</v>
+        <v>2.4855999999999998</v>
       </c>
       <c r="C101" s="0">
-        <v>53.066544049187506</v>
+        <v>53.07171205265324</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>50</v>
+        <v>50.020000000000003</v>
       </c>
       <c r="B102" s="0">
-        <v>2.5</v>
+        <v>2.5005999999999999</v>
       </c>
       <c r="C102" s="0">
-        <v>53.232738164251202</v>
+        <v>53.240928835870029</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>50.5</v>
+        <v>50.520000000000003</v>
       </c>
       <c r="B103" s="0">
-        <v>2.5149999999999997</v>
+        <v>2.5156000000000001</v>
       </c>
       <c r="C103" s="0">
-        <v>53.385047518664898</v>
+        <v>53.387553270259168</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>51</v>
+        <v>51.020000000000003</v>
       </c>
       <c r="B104" s="0">
-        <v>2.5300000000000002</v>
+        <v>2.5305999999999997</v>
       </c>
       <c r="C104" s="0">
-        <v>53.553823627580144</v>
+        <v>53.55671493212671</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>51.5</v>
+        <v>51.520000000000003</v>
       </c>
       <c r="B105" s="0">
-        <v>2.5449999999999999</v>
+        <v>2.5456000000000003</v>
       </c>
       <c r="C105" s="0">
-        <v>53.711071585419404</v>
+        <v>53.718719045660229</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>52</v>
+        <v>52.020000000000003</v>
       </c>
       <c r="B106" s="0">
-        <v>2.5600000000000001</v>
+        <v>2.5606</v>
       </c>
       <c r="C106" s="0">
-        <v>53.880071497584531</v>
+        <v>53.884948580830937</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>52.5</v>
+        <v>52.520000000000003</v>
       </c>
       <c r="B107" s="0">
-        <v>2.5750000000000002</v>
+        <v>2.5756000000000001</v>
       </c>
       <c r="C107" s="0">
-        <v>54.037533069828719</v>
+        <v>54.04412834224599</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>53</v>
+        <v>53.020000000000003</v>
       </c>
       <c r="B108" s="0">
-        <v>2.5899999999999999</v>
+        <v>2.5906000000000002</v>
       </c>
       <c r="C108" s="0">
-        <v>54.1957456302152</v>
+        <v>54.199158371040731</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>53.5</v>
+        <v>53.520000000000003</v>
       </c>
       <c r="B109" s="0">
-        <v>2.605</v>
+        <v>2.6055999999999999</v>
       </c>
       <c r="C109" s="0">
-        <v>54.35639613526569</v>
+        <v>54.360203208556165</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>54</v>
+        <v>54.020000000000003</v>
       </c>
       <c r="B110" s="0">
-        <v>2.6200000000000001</v>
+        <v>2.6206</v>
       </c>
       <c r="C110" s="0">
-        <v>54.512917347386896</v>
+        <v>54.515934183463607</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>54.5</v>
+        <v>54.520000000000003</v>
       </c>
       <c r="B111" s="0">
-        <v>2.6349999999999998</v>
+        <v>2.6356000000000002</v>
       </c>
       <c r="C111" s="0">
-        <v>54.672510671936742</v>
+        <v>54.675195392842447</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>55</v>
+        <v>55.020000000000003</v>
       </c>
       <c r="B112" s="0">
-        <v>2.6499999999999999</v>
+        <v>2.6505999999999998</v>
       </c>
       <c r="C112" s="0">
-        <v>54.825585068072009</v>
+        <v>54.832253393665162</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>55.5</v>
+        <v>55.520000000000003</v>
       </c>
       <c r="B113" s="0">
-        <v>2.665</v>
+        <v>2.6656</v>
       </c>
       <c r="C113" s="0">
-        <v>54.982517874396123</v>
+        <v>54.989947346770883</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>56</v>
+        <v>56.020000000000003</v>
       </c>
       <c r="B114" s="0">
-        <v>2.6799999999999997</v>
+        <v>2.6806000000000001</v>
       </c>
       <c r="C114" s="0">
-        <v>55.142254018445307</v>
+        <v>55.150556149732623</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>56.5</v>
+        <v>56.520000000000003</v>
       </c>
       <c r="B115" s="0">
-        <v>2.6949999999999998</v>
+        <v>2.6955999999999998</v>
       </c>
       <c r="C115" s="0">
-        <v>55.291984014053561</v>
+        <v>55.293410941999184</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>57</v>
+        <v>57.020000000000003</v>
       </c>
       <c r="B116" s="0">
-        <v>2.71</v>
+        <v>2.7106000000000003</v>
       </c>
       <c r="C116" s="0">
-        <v>55.452046903820801</v>
+        <v>55.454792266556979</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>57.5</v>
+        <v>57.520000000000003</v>
       </c>
       <c r="B117" s="0">
-        <v>2.7249999999999996</v>
+        <v>2.7256</v>
       </c>
       <c r="C117" s="0">
-        <v>55.612334650856383</v>
+        <v>55.618088029617454</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>58</v>
+        <v>58.020000000000003</v>
       </c>
       <c r="B118" s="0">
-        <v>2.7400000000000002</v>
+        <v>2.7405999999999997</v>
       </c>
       <c r="C118" s="0">
-        <v>55.771188405797098</v>
+        <v>55.777821472645002</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>58.5</v>
+        <v>58.520000000000003</v>
       </c>
       <c r="B119" s="0">
-        <v>2.7549999999999999</v>
+        <v>2.7556000000000003</v>
       </c>
       <c r="C119" s="0">
-        <v>55.932550021958697</v>
+        <v>55.939563142739615</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>59</v>
+        <v>59.020000000000003</v>
       </c>
       <c r="B120" s="0">
-        <v>2.77</v>
+        <v>2.7706</v>
       </c>
       <c r="C120" s="0">
-        <v>56.087179973649533</v>
+        <v>56.094947758124228</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>59.5</v>
+        <v>59.520000000000003</v>
       </c>
       <c r="B121" s="0">
-        <v>2.7850000000000001</v>
+        <v>2.7856000000000001</v>
       </c>
       <c r="C121" s="0">
-        <v>56.233608432147548</v>
+        <v>56.23525956396545</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>60</v>
+        <v>60.020000000000003</v>
       </c>
       <c r="B122" s="0">
-        <v>2.7999999999999998</v>
+        <v>2.8006000000000002</v>
       </c>
       <c r="C122" s="0">
-        <v>56.394584277558167</v>
+        <v>56.400075689016866</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>60.5</v>
+        <v>60.520000000000003</v>
       </c>
       <c r="B123" s="0">
-        <v>2.8149999999999999</v>
+        <v>2.8155999999999999</v>
       </c>
       <c r="C123" s="0">
-        <v>56.55289749670618</v>
+        <v>56.562195804195817</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>61</v>
+        <v>61.020000000000003</v>
       </c>
       <c r="B124" s="0">
-        <v>2.8300000000000001</v>
+        <v>2.8306</v>
       </c>
       <c r="C124" s="0">
-        <v>56.699486868686861</v>
+        <v>56.706858905800097</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>61.5</v>
+        <v>61.520000000000003</v>
       </c>
       <c r="B125" s="0">
-        <v>2.8449999999999998</v>
+        <v>2.8456000000000001</v>
       </c>
       <c r="C125" s="0">
-        <v>56.856517171717158</v>
+        <v>56.86654874537227</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>62</v>
+        <v>62.020000000000003</v>
       </c>
       <c r="B126" s="0">
-        <v>2.8599999999999999</v>
+        <v>2.8605999999999998</v>
       </c>
       <c r="C126" s="0">
-        <v>57.011523935002188</v>
+        <v>57.02016536404772</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>62.5</v>
+        <v>62.520000000000003</v>
       </c>
       <c r="B127" s="0">
-        <v>2.875</v>
+        <v>2.8755999999999999</v>
       </c>
       <c r="C127" s="0">
-        <v>57.171301888449705</v>
+        <v>57.176706705059658</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>63</v>
+        <v>63.020000000000003</v>
       </c>
       <c r="B128" s="0">
-        <v>2.8899999999999997</v>
+        <v>2.8906000000000001</v>
       </c>
       <c r="C128" s="0">
-        <v>57.325600878348702</v>
+        <v>57.329976141505561</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>63.5</v>
+        <v>63.520000000000003</v>
       </c>
       <c r="B129" s="0">
-        <v>2.9050000000000002</v>
+        <v>2.9055999999999997</v>
       </c>
       <c r="C129" s="0">
-        <v>57.469757224418075</v>
+        <v>57.471870012340617</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>64</v>
+        <v>64.019999999999996</v>
       </c>
       <c r="B130" s="0">
-        <v>2.9199999999999999</v>
+        <v>2.9205999999999999</v>
       </c>
       <c r="C130" s="0">
-        <v>57.625910232762394</v>
+        <v>57.629431509666816</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>64.5</v>
+        <v>64.519999999999996</v>
       </c>
       <c r="B131" s="0">
-        <v>2.9349999999999996</v>
+        <v>2.9356</v>
       </c>
       <c r="C131" s="0">
-        <v>57.783994027228808</v>
+        <v>57.789141094199927</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>65</v>
+        <v>65.019999999999996</v>
       </c>
       <c r="B132" s="0">
-        <v>2.9500000000000002</v>
+        <v>2.9505999999999997</v>
       </c>
       <c r="C132" s="0">
-        <v>57.943329117259545</v>
+        <v>57.953911147675868</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>65.5</v>
+        <v>65.519999999999996</v>
       </c>
       <c r="B133" s="0">
-        <v>2.9649999999999999</v>
+        <v>2.9655999999999998</v>
       </c>
       <c r="C133" s="0">
-        <v>58.088855335968375</v>
+        <v>58.094121760592358</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>66</v>
+        <v>66.019999999999996</v>
       </c>
       <c r="B134" s="0">
-        <v>2.98</v>
+        <v>2.9805999999999999</v>
       </c>
       <c r="C134" s="0">
-        <v>58.256518225735604</v>
+        <v>58.263765528589069</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>66.5</v>
+        <v>66.519999999999996</v>
       </c>
       <c r="B135" s="0">
-        <v>2.9950000000000001</v>
+        <v>2.9955999999999996</v>
       </c>
       <c r="C135" s="0">
-        <v>58.407210060470923</v>
+        <v>58.407945583827953</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>66.953000000000003</v>
+        <v>66.972999999999999</v>
       </c>
       <c r="B136" s="0">
-        <v>2.9814099999999999</v>
+        <v>2.9820099999999994</v>
       </c>
       <c r="C136" s="0">
-        <v>57.606225416217498</v>
+        <v>57.650793538012792</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>67.453000000000003</v>
+        <v>67.472999999999999</v>
       </c>
       <c r="B137" s="0">
-        <v>2.9664100000000002</v>
+        <v>2.9670099999999997</v>
       </c>
       <c r="C137" s="0">
-        <v>56.606009342436209</v>
+        <v>56.570098350847026</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>67.953000000000003</v>
+        <v>67.972999999999999</v>
       </c>
       <c r="B138" s="0">
-        <v>2.9514100000000001</v>
+        <v>2.9520099999999996</v>
       </c>
       <c r="C138" s="0">
-        <v>55.753313690262281</v>
+        <v>55.722114356231998</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>68.453000000000003</v>
+        <v>68.472999999999999</v>
       </c>
       <c r="B139" s="0">
-        <v>2.93641</v>
+        <v>2.9370099999999995</v>
       </c>
       <c r="C139" s="0">
-        <v>54.988685910488272</v>
+        <v>54.958874761602033</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>68.953000000000003</v>
+        <v>68.972999999999999</v>
       </c>
       <c r="B140" s="0">
-        <v>2.9214099999999998</v>
+        <v>2.9220099999999993</v>
       </c>
       <c r="C140" s="0">
-        <v>54.274058370263894</v>
+        <v>54.246904005085824</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>69.453000000000003</v>
+        <v>69.472999999999999</v>
       </c>
       <c r="B141" s="0">
-        <v>2.9064100000000002</v>
+        <v>2.9070099999999996</v>
       </c>
       <c r="C141" s="0">
-        <v>53.597147842056913</v>
+        <v>53.57031748999664</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>69.953000000000003</v>
+        <v>69.972999999999999</v>
       </c>
       <c r="B142" s="0">
-        <v>2.89141</v>
+        <v>2.8920099999999995</v>
       </c>
       <c r="C142" s="0">
-        <v>52.957426917395274</v>
+        <v>52.933437418196789</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>70.453000000000003</v>
+        <v>70.472999999999999</v>
       </c>
       <c r="B143" s="0">
-        <v>2.8764099999999999</v>
+        <v>2.8770099999999994</v>
       </c>
       <c r="C143" s="0">
-        <v>52.324234119854658</v>
+        <v>52.299670169402802</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>70.953000000000003</v>
+        <v>70.972999999999999</v>
       </c>
       <c r="B144" s="0">
-        <v>2.8614100000000002</v>
+        <v>2.8620099999999997</v>
       </c>
       <c r="C144" s="0">
-        <v>51.722492993172821</v>
+        <v>51.698755843087405</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>71.453000000000003</v>
+        <v>71.472999999999999</v>
       </c>
       <c r="B145" s="0">
-        <v>2.8464100000000001</v>
+        <v>2.8470099999999996</v>
       </c>
       <c r="C145" s="0">
-        <v>51.144949974048771</v>
+        <v>51.122224673722023</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>71.953000000000003</v>
+        <v>71.972999999999999</v>
       </c>
       <c r="B146" s="0">
-        <v>2.83141</v>
+        <v>2.8320099999999995</v>
       </c>
       <c r="C146" s="0">
-        <v>50.567356330099408</v>
+        <v>50.544611645039453</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>72.453000000000003</v>
+        <v>72.472999999999999</v>
       </c>
       <c r="B147" s="0">
-        <v>2.8164099999999999</v>
+        <v>2.8170099999999993</v>
       </c>
       <c r="C147" s="0">
-        <v>50.013763804048388</v>
+        <v>49.99305224187578</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>72.953000000000003</v>
+        <v>72.972999999999999</v>
       </c>
       <c r="B148" s="0">
-        <v>2.8014100000000002</v>
+        <v>2.8020099999999997</v>
       </c>
       <c r="C148" s="0">
-        <v>49.473572962829856</v>
+        <v>49.451581092704096</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>73.453000000000003</v>
+        <v>73.472999999999999</v>
       </c>
       <c r="B149" s="0">
-        <v>2.7864100000000001</v>
+        <v>2.7870099999999995</v>
       </c>
       <c r="C149" s="0">
-        <v>48.93360530203217</v>
+        <v>48.913150966680384</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>73.953000000000003</v>
+        <v>73.972999999999999</v>
       </c>
       <c r="B150" s="0">
-        <v>2.7714099999999999</v>
+        <v>2.7720099999999994</v>
       </c>
       <c r="C150" s="0">
-        <v>48.40557440012774</v>
+        <v>48.383457611906813</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>74.453000000000003</v>
+        <v>74.472999999999999</v>
       </c>
       <c r="B151" s="0">
-        <v>2.7564099999999998</v>
+        <v>2.7570099999999993</v>
       </c>
       <c r="C151" s="0">
-        <v>47.896123927017193</v>
+        <v>47.876174787779078</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>74.953000000000003</v>
+        <v>74.972999999999999</v>
       </c>
       <c r="B152" s="0">
-        <v>2.7414100000000001</v>
+        <v>2.7420099999999996</v>
       </c>
       <c r="C152" s="0">
-        <v>47.3840960594083</v>
+        <v>47.363535021128619</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>75.453000000000003</v>
+        <v>75.472999999999999</v>
       </c>
       <c r="B153" s="0">
-        <v>2.72641</v>
+        <v>2.7270099999999995</v>
       </c>
       <c r="C153" s="0">
-        <v>46.880715934043977</v>
+        <v>46.858544183089656</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>75.953000000000003</v>
+        <v>75.972999999999999</v>
       </c>
       <c r="B154" s="0">
-        <v>2.7114099999999999</v>
+        <v>2.7120099999999994</v>
       </c>
       <c r="C154" s="0">
-        <v>46.386762326825554</v>
+        <v>46.366865487453722</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>76.453000000000003</v>
+        <v>76.472999999999999</v>
       </c>
       <c r="B155" s="0">
-        <v>2.6964100000000002</v>
+        <v>2.6970099999999997</v>
       </c>
       <c r="C155" s="0">
-        <v>45.898151395376679</v>
+        <v>45.879742343218282</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>76.953000000000003</v>
+        <v>76.972999999999999</v>
       </c>
       <c r="B156" s="0">
-        <v>2.6814100000000001</v>
+        <v>2.6820099999999996</v>
       </c>
       <c r="C156" s="0">
-        <v>45.415478021319906</v>
+        <v>45.396942148760338</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>77.453000000000003</v>
+        <v>77.472999999999999</v>
       </c>
       <c r="B157" s="0">
-        <v>2.6664099999999999</v>
+        <v>2.6670099999999994</v>
       </c>
       <c r="C157" s="0">
-        <v>44.938645985547154</v>
+        <v>44.920837665008797</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>77.953000000000003</v>
+        <v>77.972999999999999</v>
       </c>
       <c r="B158" s="0">
-        <v>2.6514100000000003</v>
+        <v>2.6520099999999998</v>
       </c>
       <c r="C158" s="0">
-        <v>44.453908971134254</v>
+        <v>44.433748924871928</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>78.453000000000003</v>
+        <v>78.472999999999999</v>
       </c>
       <c r="B159" s="0">
-        <v>2.6364100000000001</v>
+        <v>2.6370099999999996</v>
       </c>
       <c r="C159" s="0">
-        <v>43.983487204056367</v>
+        <v>43.96669197113048</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>78.953000000000003</v>
+        <v>78.972999999999999</v>
       </c>
       <c r="B160" s="0">
-        <v>2.62141</v>
+        <v>2.6220099999999995</v>
       </c>
       <c r="C160" s="0">
-        <v>43.512986864694362</v>
+        <v>43.494505815040583</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>79.453000000000003</v>
+        <v>79.472999999999999</v>
       </c>
       <c r="B161" s="0">
-        <v>2.6064099999999999</v>
+        <v>2.6070099999999994</v>
       </c>
       <c r="C161" s="0">
-        <v>43.051593324549827</v>
+        <v>43.032425862907154</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>79.953000000000003</v>
+        <v>79.972999999999999</v>
       </c>
       <c r="B162" s="0">
-        <v>2.5914100000000002</v>
+        <v>2.5920099999999997</v>
       </c>
       <c r="C162" s="0">
-        <v>42.594288896873863</v>
+        <v>42.576500504842748</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>80.453000000000003</v>
+        <v>80.472999999999999</v>
       </c>
       <c r="B163" s="0">
-        <v>2.5764100000000001</v>
+        <v>2.5770099999999996</v>
       </c>
       <c r="C163" s="0">
-        <v>42.136878268854538</v>
+        <v>42.117808234546203</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>80.953000000000003</v>
+        <v>80.972999999999999</v>
       </c>
       <c r="B164" s="0">
-        <v>2.56141</v>
+        <v>2.5620099999999995</v>
       </c>
       <c r="C164" s="0">
-        <v>41.673844532279311</v>
+        <v>41.655675180434535</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>81.453000000000003</v>
+        <v>81.472999999999999</v>
       </c>
       <c r="B165" s="0">
-        <v>2.5464099999999998</v>
+        <v>2.5470099999999993</v>
       </c>
       <c r="C165" s="0">
-        <v>41.231441929173151</v>
+        <v>41.215704349126817</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>81.953000000000003</v>
+        <v>81.972999999999999</v>
       </c>
       <c r="B166" s="0">
-        <v>2.5314100000000002</v>
+        <v>2.5320099999999996</v>
       </c>
       <c r="C166" s="0">
-        <v>40.770624026829566</v>
+        <v>40.751207135110889</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>82.453000000000003</v>
+        <v>82.472999999999999</v>
       </c>
       <c r="B167" s="0">
-        <v>2.51641</v>
+        <v>2.5170099999999995</v>
       </c>
       <c r="C167" s="0">
-        <v>40.329997844053175</v>
+        <v>40.311173478927493</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>82.953000000000003</v>
+        <v>82.972999999999999</v>
       </c>
       <c r="B168" s="0">
-        <v>2.5014099999999999</v>
+        <v>2.5020099999999994</v>
       </c>
       <c r="C168" s="0">
-        <v>39.880880983750536</v>
+        <v>39.863237724842008</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>83.453000000000003</v>
+        <v>83.472999999999999</v>
       </c>
       <c r="B169" s="0">
-        <v>2.4864100000000002</v>
+        <v>2.4870099999999997</v>
       </c>
       <c r="C169" s="0">
-        <v>39.437839102487317</v>
+        <v>39.41911035488576</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>83.953000000000003</v>
+        <v>83.972999999999999</v>
       </c>
       <c r="B170" s="0">
-        <v>2.4714100000000001</v>
+        <v>2.4720099999999996</v>
       </c>
       <c r="C170" s="0">
-        <v>38.994529644268773</v>
+        <v>38.976217792902283</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>84.453000000000003</v>
+        <v>84.472999999999999</v>
       </c>
       <c r="B171" s="0">
-        <v>2.45641</v>
+        <v>2.4570099999999995</v>
       </c>
       <c r="C171" s="0">
-        <v>38.544950373298192</v>
+        <v>38.526656445159119</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>84.953000000000003</v>
+        <v>84.972999999999999</v>
       </c>
       <c r="B172" s="0">
-        <v>2.4414100000000003</v>
+        <v>2.4420099999999998</v>
       </c>
       <c r="C172" s="0">
-        <v>38.10637082285303</v>
+        <v>38.088974608279429</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>85.453000000000003</v>
+        <v>85.472999999999999</v>
       </c>
       <c r="B173" s="0">
-        <v>2.4264100000000002</v>
+        <v>2.4270099999999997</v>
       </c>
       <c r="C173" s="0">
-        <v>37.673067353375643</v>
+        <v>37.656136644104564</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>85.953000000000003</v>
+        <v>85.972999999999999</v>
       </c>
       <c r="B174" s="0">
-        <v>2.4114100000000001</v>
+        <v>2.4120099999999995</v>
       </c>
       <c r="C174" s="0">
-        <v>37.235271769074124</v>
+        <v>37.219340712763177</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>86.453000000000003</v>
+        <v>86.472999999999999</v>
       </c>
       <c r="B175" s="0">
-        <v>2.3964099999999999</v>
+        <v>2.3970099999999994</v>
       </c>
       <c r="C175" s="0">
-        <v>36.801597955843008</v>
+        <v>36.78464604913804</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>86.953000000000003</v>
+        <v>86.972999999999999</v>
       </c>
       <c r="B176" s="0">
-        <v>2.3814099999999998</v>
+        <v>2.3820099999999993</v>
       </c>
       <c r="C176" s="0">
-        <v>36.358230207210433</v>
+        <v>36.341262480834679</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>87.453000000000003</v>
+        <v>87.472999999999999</v>
       </c>
       <c r="B177" s="0">
-        <v>2.3664100000000001</v>
+        <v>2.3670099999999996</v>
       </c>
       <c r="C177" s="0">
-        <v>35.92592310456341</v>
+        <v>35.909103623649088</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>87.953000000000003</v>
+        <v>87.972999999999999</v>
       </c>
       <c r="B178" s="0">
-        <v>2.35141</v>
+        <v>2.3520099999999995</v>
       </c>
       <c r="C178" s="0">
-        <v>35.493723559707746</v>
+        <v>35.47771811076624</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>88.453000000000003</v>
+        <v>88.472999999999999</v>
       </c>
       <c r="B179" s="0">
-        <v>2.3364099999999999</v>
+        <v>2.3370099999999994</v>
       </c>
       <c r="C179" s="0">
-        <v>35.057193675889323</v>
+        <v>35.039029206088031</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>88.953000000000003</v>
+        <v>88.972999999999999</v>
       </c>
       <c r="B180" s="0">
-        <v>2.3214100000000002</v>
+        <v>2.3220099999999997</v>
       </c>
       <c r="C180" s="0">
-        <v>34.624415938036478</v>
+        <v>34.607300774092216</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>89.453000000000003</v>
+        <v>89.472999999999999</v>
       </c>
       <c r="B181" s="0">
-        <v>2.3064100000000001</v>
+        <v>2.3070099999999996</v>
       </c>
       <c r="C181" s="0">
-        <v>34.184883778496427</v>
+        <v>34.167157548334025</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>89.953000000000003</v>
+        <v>89.972999999999999</v>
       </c>
       <c r="B182" s="0">
-        <v>2.2914099999999999</v>
+        <v>2.2920099999999994</v>
       </c>
       <c r="C182" s="0">
-        <v>33.753757975006977</v>
+        <v>33.735703975169223</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>90.453000000000003</v>
+        <v>90.472999999999999</v>
       </c>
       <c r="B183" s="0">
-        <v>2.2764100000000003</v>
+        <v>2.2770099999999998</v>
       </c>
       <c r="C183" s="0">
-        <v>33.311994091108716</v>
+        <v>33.293705545791113</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>90.953000000000003</v>
+        <v>90.972999999999999</v>
       </c>
       <c r="B184" s="0">
-        <v>2.2614100000000001</v>
+        <v>2.2620099999999996</v>
       </c>
       <c r="C184" s="0">
-        <v>32.887343713818019</v>
+        <v>32.86828951796867</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>91.453000000000003</v>
+        <v>91.472999999999999</v>
       </c>
       <c r="B185" s="0">
-        <v>2.24641</v>
+        <v>2.2470099999999995</v>
       </c>
       <c r="C185" s="0">
-        <v>32.450818062043346</v>
+        <v>32.435128080475678</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>91.953000000000003</v>
+        <v>91.972999999999999</v>
       </c>
       <c r="B186" s="0">
-        <v>2.2314099999999999</v>
+        <v>2.2320099999999994</v>
       </c>
       <c r="C186" s="0">
-        <v>32.000408991096734</v>
+        <v>31.98203507722225</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>92.453000000000003</v>
+        <v>92.472999999999999</v>
       </c>
       <c r="B187" s="0">
-        <v>2.2164099999999998</v>
+        <v>2.2170099999999993</v>
       </c>
       <c r="C187" s="0">
-        <v>31.565073901065993</v>
+        <v>31.547277214763852</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>92.953000000000003</v>
+        <v>92.972999999999999</v>
       </c>
       <c r="B188" s="0">
-        <v>2.2014100000000001</v>
+        <v>2.2020099999999996</v>
       </c>
       <c r="C188" s="0">
-        <v>31.125836706990849</v>
+        <v>31.109116712164852</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>93.453000000000003</v>
+        <v>93.472999999999999</v>
       </c>
       <c r="B189" s="0">
-        <v>2.18641</v>
+        <v>2.1870099999999995</v>
       </c>
       <c r="C189" s="0">
-        <v>30.687274164570606</v>
+        <v>30.668039714296402</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>93.953000000000003</v>
+        <v>93.972999999999999</v>
       </c>
       <c r="B190" s="0">
-        <v>2.1714099999999998</v>
+        <v>2.1720099999999993</v>
       </c>
       <c r="C190" s="0">
-        <v>30.238016688625379</v>
+        <v>30.218081597546842</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>94.453000000000003</v>
+        <v>94.472999999999999</v>
       </c>
       <c r="B191" s="0">
-        <v>2.1564100000000002</v>
+        <v>2.1570099999999996</v>
       </c>
       <c r="C191" s="0">
-        <v>29.790679762047343</v>
+        <v>29.77365393964325</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>94.953000000000003</v>
+        <v>94.972999999999999</v>
       </c>
       <c r="B192" s="0">
-        <v>2.14141</v>
+        <v>2.1420099999999995</v>
       </c>
       <c r="C192" s="0">
-        <v>29.348248652533226</v>
+        <v>29.331488351220973</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>95.453000000000003</v>
+        <v>95.472999999999999</v>
       </c>
       <c r="B193" s="0">
-        <v>2.1264099999999999</v>
+        <v>2.1270099999999994</v>
       </c>
       <c r="C193" s="0">
-        <v>28.905828163053449</v>
+        <v>28.884796380090506</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>95.953000000000003</v>
+        <v>95.972999999999999</v>
       </c>
       <c r="B194" s="0">
-        <v>2.1114100000000002</v>
+        <v>2.1120099999999997</v>
       </c>
       <c r="C194" s="0">
-        <v>28.455705353934597</v>
+        <v>28.436482928835872</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>96.453000000000003</v>
+        <v>96.472999999999999</v>
       </c>
       <c r="B195" s="0">
-        <v>2.0964100000000001</v>
+        <v>2.0970099999999996</v>
       </c>
       <c r="C195" s="0">
-        <v>28.001649778416571</v>
+        <v>27.984667738678439</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>96.953000000000003</v>
+        <v>96.972999999999999</v>
       </c>
       <c r="B196" s="0">
-        <v>2.08141</v>
+        <v>2.0820099999999995</v>
       </c>
       <c r="C196" s="0">
-        <v>27.549516349263389</v>
+        <v>27.531739650723608</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>97.453000000000003</v>
+        <v>97.472999999999999</v>
       </c>
       <c r="B197" s="0">
-        <v>2.0664100000000003</v>
+        <v>2.0670099999999998</v>
       </c>
       <c r="C197" s="0">
-        <v>27.089164291132672</v>
+        <v>27.070031038480245</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>97.953000000000003</v>
+        <v>97.972999999999999</v>
       </c>
       <c r="B198" s="0">
-        <v>2.0514100000000002</v>
+        <v>2.0520099999999997</v>
       </c>
       <c r="C198" s="0">
-        <v>26.632543857547809</v>
+        <v>26.61269436445907</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>98.453000000000003</v>
+        <v>98.472999999999999</v>
       </c>
       <c r="B199" s="0">
-        <v>2.0364100000000001</v>
+        <v>2.0370099999999995</v>
       </c>
       <c r="C199" s="0">
-        <v>26.177781371022469</v>
+        <v>26.160547099958865</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>98.953000000000003</v>
+        <v>98.972999999999999</v>
       </c>
       <c r="B200" s="0">
-        <v>2.0214099999999999</v>
+        <v>2.0220099999999994</v>
       </c>
       <c r="C200" s="0">
-        <v>25.702970415618633</v>
+        <v>25.684735051045216</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>99.453000000000003</v>
+        <v>99.472999999999999</v>
       </c>
       <c r="B201" s="0">
-        <v>2.0064099999999998</v>
+        <v>2.0070099999999993</v>
       </c>
       <c r="C201" s="0">
-        <v>25.246657084680791</v>
+        <v>25.227394637448111</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>99.953000000000003</v>
+        <v>99.972999999999999</v>
       </c>
       <c r="B202" s="0">
-        <v>1.9914100000000001</v>
+        <v>1.9920099999999996</v>
       </c>
       <c r="C202" s="0">
-        <v>24.769175070866758</v>
+        <v>24.750794285927977</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>100.453</v>
+        <v>100.473</v>
       </c>
       <c r="B203" s="0">
-        <v>1.97641</v>
+        <v>1.9770099999999995</v>
       </c>
       <c r="C203" s="0">
-        <v>24.300136463448716</v>
+        <v>24.280601697767469</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>100.953</v>
+        <v>100.973</v>
       </c>
       <c r="B204" s="0">
-        <v>1.9614100000000001</v>
+        <v>1.9620099999999996</v>
       </c>
       <c r="C204" s="0">
-        <v>23.820413302990371</v>
+        <v>23.801310347406613</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>101.453</v>
+        <v>101.473</v>
       </c>
       <c r="B205" s="0">
-        <v>1.94641</v>
+        <v>1.9470099999999995</v>
       </c>
       <c r="C205" s="0">
-        <v>23.343426757695529</v>
+        <v>23.324085486705812</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>101.953</v>
+        <v>101.973</v>
       </c>
       <c r="B206" s="0">
-        <v>1.9314100000000001</v>
+        <v>1.9320099999999996</v>
       </c>
       <c r="C206" s="0">
-        <v>22.851908811434505</v>
+        <v>22.831026513593365</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>102.453</v>
+        <v>102.473</v>
       </c>
       <c r="B207" s="0">
-        <v>1.9164099999999999</v>
+        <v>1.9170099999999994</v>
       </c>
       <c r="C207" s="0">
-        <v>22.373465963987698</v>
+        <v>22.354697655285893</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>102.953</v>
+        <v>102.973</v>
       </c>
       <c r="B208" s="0">
-        <v>1.90141</v>
+        <v>1.9020099999999995</v>
       </c>
       <c r="C208" s="0">
-        <v>21.881281111510358</v>
+        <v>21.860690699674659</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>103.453</v>
+        <v>103.473</v>
       </c>
       <c r="B209" s="0">
-        <v>1.8864100000000001</v>
+        <v>1.8870099999999996</v>
       </c>
       <c r="C209" s="0">
-        <v>21.380158821415733</v>
+        <v>21.360962566844925</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>103.953</v>
+        <v>103.973</v>
       </c>
       <c r="B210" s="0">
-        <v>1.87141</v>
+        <v>1.8720099999999995</v>
       </c>
       <c r="C210" s="0">
-        <v>20.871846288976716</v>
+        <v>20.852653229123817</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>104.453</v>
+        <v>104.473</v>
       </c>
       <c r="B211" s="0">
-        <v>1.8564100000000001</v>
+        <v>1.8570099999999996</v>
       </c>
       <c r="C211" s="0">
-        <v>20.371176268614999</v>
+        <v>20.351691784151679</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>104.953</v>
+        <v>104.973</v>
       </c>
       <c r="B212" s="0">
-        <v>1.84141</v>
+        <v>1.8420099999999995</v>
       </c>
       <c r="C212" s="0">
-        <v>19.853485527208839</v>
+        <v>19.831162260199697</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>105.453</v>
+        <v>105.473</v>
       </c>
       <c r="B213" s="0">
-        <v>1.8264100000000001</v>
+        <v>1.8270099999999996</v>
       </c>
       <c r="C213" s="0">
-        <v>19.334452349582783</v>
+        <v>19.315103773232117</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>105.953</v>
+        <v>105.973</v>
       </c>
       <c r="B214" s="0">
-        <v>1.81141</v>
+        <v>1.8120099999999995</v>
       </c>
       <c r="C214" s="0">
-        <v>18.813098175430188</v>
+        <v>18.790995475113125</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>106.453</v>
+        <v>106.473</v>
       </c>
       <c r="B215" s="0">
-        <v>1.7964100000000001</v>
+        <v>1.7970099999999996</v>
       </c>
       <c r="C215" s="0">
-        <v>18.280803050265497</v>
+        <v>18.259834336786213</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>106.953</v>
+        <v>106.973</v>
       </c>
       <c r="B216" s="0">
-        <v>1.7814100000000002</v>
+        <v>1.7820099999999996</v>
       </c>
       <c r="C216" s="0">
-        <v>17.744806403960549</v>
+        <v>17.722805429864255</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>107.453</v>
+        <v>107.473</v>
       </c>
       <c r="B217" s="0">
-        <v>1.76641</v>
+        <v>1.7670099999999995</v>
       </c>
       <c r="C217" s="0">
-        <v>17.202474308300392</v>
+        <v>17.180789798436862</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>107.953</v>
+        <v>107.973</v>
       </c>
       <c r="B218" s="0">
-        <v>1.7514100000000001</v>
+        <v>1.7520099999999996</v>
       </c>
       <c r="C218" s="0">
-        <v>16.651191599792384</v>
+        <v>16.630556822856292</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>108.453</v>
+        <v>108.473</v>
       </c>
       <c r="B219" s="0">
-        <v>1.73641</v>
+        <v>1.7370099999999995</v>
       </c>
       <c r="C219" s="0">
-        <v>16.097938595440567</v>
+        <v>16.075530458845968</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>108.953</v>
+        <v>108.973</v>
       </c>
       <c r="B220" s="0">
-        <v>1.7214100000000001</v>
+        <v>1.7220099999999996</v>
       </c>
       <c r="C220" s="0">
-        <v>15.538013175230564</v>
+        <v>15.514898470513449</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>109.453</v>
+        <v>109.473</v>
       </c>
       <c r="B221" s="0">
-        <v>1.70641</v>
+        <v>1.7070099999999995</v>
       </c>
       <c r="C221" s="0">
-        <v>14.972269892601908</v>
+        <v>14.950270745297486</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>109.953</v>
+        <v>109.973</v>
       </c>
       <c r="B222" s="0">
-        <v>1.6914100000000001</v>
+        <v>1.6920099999999996</v>
       </c>
       <c r="C222" s="0">
-        <v>14.397837984588968</v>
+        <v>14.375302344714113</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>110.453</v>
+        <v>110.473</v>
       </c>
       <c r="B223" s="0">
-        <v>1.67641</v>
+        <v>1.6770099999999994</v>
       </c>
       <c r="C223" s="0">
-        <v>13.820240348145481</v>
+        <v>13.796884185333385</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>110.953</v>
+        <v>110.973</v>
       </c>
       <c r="B224" s="0">
-        <v>1.6614100000000001</v>
+        <v>1.6620099999999995</v>
       </c>
       <c r="C224" s="0">
-        <v>13.215855551563061</v>
+        <v>13.192940054597811</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>111.453</v>
+        <v>111.473</v>
       </c>
       <c r="B225" s="0">
-        <v>1.6464100000000002</v>
+        <v>1.6470099999999996</v>
       </c>
       <c r="C225" s="0">
-        <v>12.609659120852795</v>
+        <v>12.585183800157063</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>111.953</v>
+        <v>111.973</v>
       </c>
       <c r="B226" s="0">
-        <v>1.63141</v>
+        <v>1.6320099999999995</v>
       </c>
       <c r="C226" s="0">
-        <v>11.998277717890366</v>
+        <v>11.974089226281741</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>112.453</v>
+        <v>112.473</v>
       </c>
       <c r="B227" s="0">
-        <v>1.6164100000000001</v>
+        <v>1.6170099999999996</v>
       </c>
       <c r="C227" s="0">
-        <v>11.377222262147159</v>
+        <v>11.352452787853862</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>112.953</v>
+        <v>112.973</v>
       </c>
       <c r="B228" s="0">
-        <v>1.60141</v>
+        <v>1.6020099999999995</v>
       </c>
       <c r="C228" s="0">
-        <v>10.753134187727071</v>
+        <v>10.727700160801765</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>113.453</v>
+        <v>113.473</v>
       </c>
       <c r="B229" s="0">
-        <v>1.5864100000000001</v>
+        <v>1.5870099999999996</v>
       </c>
       <c r="C229" s="0">
-        <v>10.101752145965584</v>
+        <v>10.077284693915711</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>113.953</v>
+        <v>113.973</v>
       </c>
       <c r="B230" s="0">
-        <v>1.57141</v>
+        <v>1.5720099999999995</v>
       </c>
       <c r="C230" s="0">
-        <v>9.4624534674811347</v>
+        <v>9.4362750084140483</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>114.453</v>
+        <v>114.473</v>
       </c>
       <c r="B231" s="0">
-        <v>1.5564100000000001</v>
+        <v>1.5570099999999996</v>
       </c>
       <c r="C231" s="0">
-        <v>8.7937519862658178</v>
+        <v>8.7657701656632145</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>114.953</v>
+        <v>114.973</v>
       </c>
       <c r="B232" s="0">
-        <v>1.5414100000000002</v>
+        <v>1.5420099999999997</v>
       </c>
       <c r="C232" s="0">
-        <v>8.1191998243302574</v>
+        <v>8.0901327549455928</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>115.453</v>
+        <v>115.473</v>
       </c>
       <c r="B233" s="0">
-        <v>1.52641</v>
+        <v>1.5270099999999995</v>
       </c>
       <c r="C233" s="0">
-        <v>7.4309561224897154</v>
+        <v>7.4049250215025628</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>115.953</v>
+        <v>115.973</v>
       </c>
       <c r="B234" s="0">
-        <v>1.5114100000000001</v>
+        <v>1.5120099999999996</v>
       </c>
       <c r="C234" s="0">
-        <v>6.7365306823172437</v>
+        <v>6.708765192027224</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>116.453</v>
+        <v>116.473</v>
       </c>
       <c r="B235" s="0">
-        <v>1.49641</v>
+        <v>1.4970099999999995</v>
       </c>
       <c r="C235" s="0">
-        <v>6.0265389867049937</v>
+        <v>5.9983093377211034</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>116.953</v>
+        <v>116.973</v>
       </c>
       <c r="B236" s="0">
-        <v>1.4814100000000001</v>
+        <v>1.4820099999999996</v>
       </c>
       <c r="C236" s="0">
-        <v>5.3119310895516421</v>
+        <v>5.2839751692158119</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>117.453</v>
+        <v>117.473</v>
       </c>
       <c r="B237" s="0">
-        <v>1.46641</v>
+        <v>1.4670099999999995</v>
       </c>
       <c r="C237" s="0">
-        <v>4.5679044995408624</v>
+        <v>4.5382237014322584</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>117.953</v>
+        <v>117.973</v>
       </c>
       <c r="B238" s="0">
-        <v>1.4514100000000001</v>
+        <v>1.4520099999999996</v>
       </c>
       <c r="C238" s="0">
-        <v>3.815916716572842</v>
+        <v>3.7854437006843429</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>118.453</v>
+        <v>118.473</v>
       </c>
       <c r="B239" s="0">
-        <v>1.43641</v>
+        <v>1.4370099999999995</v>
       </c>
       <c r="C239" s="0">
-        <v>3.0562100051902421</v>
+        <v>3.0253674133353283</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>118.953</v>
+        <v>118.973</v>
       </c>
       <c r="B240" s="0">
-        <v>1.4214100000000001</v>
+        <v>1.4220099999999996</v>
       </c>
       <c r="C240" s="0">
-        <v>2.2819227851638906</v>
+        <v>2.2495677050222502</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>119.453</v>
+        <v>119.473</v>
       </c>
       <c r="B241" s="0">
-        <v>1.4064100000000002</v>
+        <v>1.4070099999999996</v>
       </c>
       <c r="C241" s="0">
-        <v>1.4795383079809954</v>
+        <v>1.4474017426423844</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>119.953</v>
+        <v>119.973</v>
       </c>
       <c r="B242" s="0">
-        <v>1.39141</v>
+        <v>1.3920099999999995</v>
       </c>
       <c r="C242" s="0">
-        <v>0.674894079131233</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="0">
-        <v>120.453</v>
-      </c>
-      <c r="B243" s="0">
-        <v>1.3764100000000001</v>
-      </c>
-      <c r="C243" s="0">
-        <v>0.070649578791871254</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="0">
-        <v>121.173</v>
-      </c>
-      <c r="B244" s="0">
-        <v>1.3548100000000001</v>
-      </c>
-      <c r="C244" s="0">
-        <v>0.076916836347666384</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="0">
-        <v>121.79300000000001</v>
-      </c>
-      <c r="B245" s="0">
-        <v>1.3362099999999999</v>
-      </c>
-      <c r="C245" s="0">
-        <v>0.056459695771948731</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="0">
-        <v>122.35299999999999</v>
-      </c>
-      <c r="B246" s="0">
-        <v>1.3194100000000004</v>
-      </c>
-      <c r="C246" s="0">
-        <v>0.05781203337725075</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="0">
-        <v>122.913</v>
-      </c>
-      <c r="B247" s="0">
-        <v>1.3026100000000003</v>
-      </c>
-      <c r="C247" s="0">
-        <v>0.050857587735058073</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="0">
-        <v>123.533</v>
-      </c>
-      <c r="B248" s="0">
-        <v>1.2840100000000001</v>
-      </c>
-      <c r="C248" s="0">
-        <v>0.055977562183095762</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="0">
-        <v>124.173</v>
-      </c>
-      <c r="B249" s="0">
-        <v>1.2648100000000002</v>
-      </c>
-      <c r="C249" s="0">
-        <v>0.066721363835988326</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="0">
-        <v>124.733</v>
-      </c>
-      <c r="B250" s="0">
-        <v>1.2480100000000001</v>
-      </c>
-      <c r="C250" s="0">
-        <v>0.05945230965784324</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="0">
-        <v>125.29300000000001</v>
-      </c>
-      <c r="B251" s="0">
-        <v>1.2312099999999999</v>
-      </c>
-      <c r="C251" s="0">
-        <v>0.071863456701401332</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="0">
-        <v>125.873</v>
-      </c>
-      <c r="B252" s="0">
-        <v>1.2138100000000001</v>
-      </c>
-      <c r="C252" s="0">
-        <v>0.063302271729149179</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="0">
-        <v>126.43300000000001</v>
-      </c>
-      <c r="B253" s="0">
-        <v>1.1970099999999999</v>
-      </c>
-      <c r="C253" s="0">
-        <v>0.066269253802850633</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="0">
-        <v>126.99299999999999</v>
-      </c>
-      <c r="B254" s="0">
-        <v>1.1802100000000004</v>
-      </c>
-      <c r="C254" s="0">
-        <v>0.056035453347706293</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="0">
-        <v>127.553</v>
-      </c>
-      <c r="B255" s="0">
-        <v>1.1634100000000003</v>
-      </c>
-      <c r="C255" s="0">
-        <v>0.060635844612129182</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="0">
-        <v>128.15299999999999</v>
-      </c>
-      <c r="B256" s="0">
-        <v>1.1454100000000005</v>
-      </c>
-      <c r="C256" s="0">
-        <v>0.077825687707110611</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="0">
-        <v>128.69300000000001</v>
-      </c>
-      <c r="B257" s="0">
-        <v>1.1292099999999998</v>
-      </c>
-      <c r="C257" s="0">
-        <v>0.060597037569369586</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="0">
-        <v>129.31299999999999</v>
-      </c>
-      <c r="B258" s="0">
-        <v>1.1106100000000005</v>
-      </c>
-      <c r="C258" s="0">
-        <v>0.075781211322713288</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="0">
-        <v>129.893</v>
-      </c>
-      <c r="B259" s="0">
-        <v>1.0932100000000002</v>
-      </c>
-      <c r="C259" s="0">
-        <v>0.062898071625344346</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="0">
-        <v>130.453</v>
-      </c>
-      <c r="B260" s="0">
-        <v>1.0764100000000001</v>
-      </c>
-      <c r="C260" s="0">
-        <v>0.06832331217311452</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="0">
-        <v>131.03299999999999</v>
-      </c>
-      <c r="B261" s="0">
-        <v>1.0590100000000007</v>
-      </c>
-      <c r="C261" s="0">
-        <v>0.060127520261907604</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="0">
-        <v>131.59299999999999</v>
-      </c>
-      <c r="B262" s="0">
-        <v>1.0422100000000005</v>
-      </c>
-      <c r="C262" s="0">
-        <v>0.065923344113067411</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="0">
-        <v>132.113</v>
-      </c>
-      <c r="B263" s="0">
-        <v>1.0266100000000002</v>
-      </c>
-      <c r="C263" s="0">
-        <v>0.059082205453746935</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="0">
-        <v>132.65299999999999</v>
-      </c>
-      <c r="B264" s="0">
-        <v>1.0104100000000005</v>
-      </c>
-      <c r="C264" s="0">
-        <v>0.064771349862258937</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="0">
-        <v>133.233</v>
-      </c>
-      <c r="B265" s="0">
-        <v>0.99300999999999995</v>
-      </c>
-      <c r="C265" s="0">
-        <v>0.074500185804533617</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="0">
-        <v>131.953</v>
-      </c>
-      <c r="B266" s="0">
-        <v>2.9950000000000001</v>
-      </c>
-      <c r="C266" s="0">
-        <v>0.055354333852357565</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="0">
-        <v>132.453</v>
-      </c>
-      <c r="B267" s="0">
-        <v>2.9950000000000001</v>
-      </c>
-      <c r="C267" s="0">
-        <v>0.05566071785044116</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="0">
-        <v>132.953</v>
-      </c>
-      <c r="B268" s="0">
-        <v>2.9950000000000001</v>
-      </c>
-      <c r="C268" s="0">
-        <v>0.054394458418173815</v>
+        <v>0.64634979993268782</v>
       </c>
     </row>
   </sheetData>
